--- a/MeasurementsBalloon.xlsx
+++ b/MeasurementsBalloon.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Documents\GitHub\EKS-dongmul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9C9C2-0956-4135-9759-B73EC866A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C846D3-A509-46DE-8B17-AA743F8E8B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="132" windowWidth="22272" windowHeight="12252" activeTab="3" xr2:uid="{F13927E3-5DAE-4E7F-83A3-47C948D31176}"/>
+    <workbookView xWindow="-24" yWindow="276" windowWidth="22968" windowHeight="12252" activeTab="4" xr2:uid="{F13927E3-5DAE-4E7F-83A3-47C948D31176}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
     <sheet name="Processed" sheetId="2" r:id="rId2"/>
     <sheet name="RD1" sheetId="3" r:id="rId3"/>
     <sheet name="RD2" sheetId="4" r:id="rId4"/>
+    <sheet name="RD3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t xml:space="preserve"> PWM</t>
   </si>
@@ -73,12 +75,90 @@
   <si>
     <t>A time was pumped before measurement started. It is better to leave this out.</t>
   </si>
+  <si>
+    <t>TimeSec till 529@100</t>
+  </si>
+  <si>
+    <t>meas Time mSec</t>
+  </si>
+  <si>
+    <t>DeltaVol/Sec</t>
+  </si>
+  <si>
+    <t>Breakpoint</t>
+  </si>
+  <si>
+    <t>BPTime*Deltavol</t>
+  </si>
+  <si>
+    <t>PWM / BP</t>
+  </si>
+  <si>
+    <t>C = opp/t</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>1000/time</t>
+  </si>
+  <si>
+    <t>65-80</t>
+  </si>
+  <si>
+    <t>y = ax + b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>80- 85</t>
+  </si>
+  <si>
+    <t>85-95</t>
+  </si>
+  <si>
+    <t>95-100</t>
+  </si>
+  <si>
+    <t>100-105</t>
+  </si>
+  <si>
+    <t>105-110</t>
+  </si>
+  <si>
+    <t>Dvol = y * time</t>
+  </si>
+  <si>
+    <t>95-105</t>
+  </si>
+  <si>
+    <t>65-105</t>
+  </si>
+  <si>
+    <t>DPresVol = 0,010023 * t - 0,59826</t>
+  </si>
+  <si>
+    <t>DVacVol = 0,006065 * t - 0,34273</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +174,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,12 +215,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10660,418 +10765,23 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3933449362379413E-2"/>
+          <c:y val="0.14731142183869353"/>
+          <c:w val="0.94586533297963882"/>
+          <c:h val="0.63437666842142604"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RD2'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'RD2'!$A$2:$A$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2201</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2401</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3401</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3601</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3801</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4201</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4401</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4601</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4801</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5801</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6202</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6401</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6601</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6801</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7201</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7401</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7601</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7801</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8201</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8401</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8601</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8801</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9201</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9401</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9601</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9801</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10201</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10401</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10601</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10801</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11201</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11401</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RD2'!$B$2:$B$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C87-415A-9449-05858D797B03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$C$1</c:f>
@@ -11470,13 +11180,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000000-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$D$1</c:f>
@@ -11875,13 +11585,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000001-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$E$1</c:f>
@@ -12280,13 +11990,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000002-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$F$1</c:f>
@@ -12685,13 +12395,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000003-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$G$1</c:f>
@@ -13090,13 +12800,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000004-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$H$1</c:f>
@@ -13497,13 +13207,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000005-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$I$1</c:f>
@@ -13904,13 +13614,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000006-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$J$1</c:f>
@@ -14311,13 +14021,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000007-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$K$1</c:f>
@@ -14718,13 +14428,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000008-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$L$1</c:f>
@@ -15125,13 +14835,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{00000009-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$M$1</c:f>
@@ -15532,13 +15242,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-8C87-415A-9449-05858D797B03}"/>
+              <c16:uniqueId val="{0000000A-8C87-415A-9449-05858D797B03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:idx val="11"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>'RD2'!$N$1</c:f>
@@ -15934,6 +15644,234 @@
                 <c:pt idx="58">
                   <c:v>500</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8C87-415A-9449-05858D797B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RD2'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RD2'!$A$2:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7201</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9801</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10201</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10601</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10801</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11201</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RD2'!$O$2:$O$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16146,6 +16084,663 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RD3'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000/time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RD3'!$P$5:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RD3'!$Q$5:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3191489361702128E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1967213114754092E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11362345188046813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14277555682467161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31210986267166041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35676061362825545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3843197540353574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45413260672116257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45413260672116257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FE8-4F24-A70E-143B82298D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="426322824"/>
+        <c:axId val="426323480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426322824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426323480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426323480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426322824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RD3'!$O$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000/time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RD3'!$N$101:$N$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RD3'!$O$101:$O$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1546391752577317E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9520266650794594E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0422535211267609E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.771929824561403E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14705882352941177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24993751562109473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-765F-4EE1-B824-984FC65054D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="423337824"/>
+        <c:axId val="423338152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="423337824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423338152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423338152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423337824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16227,6 +16822,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17814,6 +18489,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17900,16 +19607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17929,6 +19636,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B43675-A0BB-4AB7-2F70-B06365A12867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B2F6E3-1A04-E6A5-549F-B5CFA7360AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -27112,15 +28896,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5BD091-1A05-45B9-AF3A-334CBF45A2E8}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>60</v>
       </c>
@@ -27161,7 +28952,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27205,7 +28996,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
@@ -27249,7 +29040,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>401</v>
       </c>
@@ -27292,8 +29083,26 @@
       <c r="N4">
         <v>516</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>601</v>
       </c>
@@ -27336,8 +29145,29 @@
       <c r="N5">
         <v>520</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>11200</v>
+      </c>
+      <c r="R5">
+        <f>Q5/1000</f>
+        <v>11.2</v>
+      </c>
+      <c r="S5" s="5">
+        <f>100/R5</f>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="T5">
+        <v>11.6</v>
+      </c>
+      <c r="U5">
+        <f>T5*S5</f>
+        <v>103.57142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>801</v>
       </c>
@@ -27380,8 +29210,29 @@
       <c r="N6">
         <v>523</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>65</v>
+      </c>
+      <c r="Q6">
+        <v>8600</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R17" si="0">Q6/1000</f>
+        <v>8.6</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" ref="S6:S17" si="1">100/R6</f>
+        <v>11.627906976744187</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U17" si="2">T6*S6</f>
+        <v>104.65116279069768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -27424,8 +29275,29 @@
       <c r="N7">
         <v>525</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>70</v>
+      </c>
+      <c r="Q7">
+        <v>5800</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="1"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="T7">
+        <v>7.4</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>127.58620689655174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1201</v>
       </c>
@@ -27468,8 +29340,29 @@
       <c r="N8">
         <v>527</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>75</v>
+      </c>
+      <c r="Q8">
+        <v>3800</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="1"/>
+        <v>26.315789473684212</v>
+      </c>
+      <c r="T8">
+        <v>4.2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>110.5263157894737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1401</v>
       </c>
@@ -27512,8 +29405,29 @@
       <c r="N9">
         <v>528</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>80</v>
+      </c>
+      <c r="Q9">
+        <v>3200</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+      <c r="T9">
+        <v>5.6</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1601</v>
       </c>
@@ -27556,8 +29470,29 @@
       <c r="N10">
         <v>529</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>85</v>
+      </c>
+      <c r="Q10">
+        <v>3400</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="1"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="T10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>135.29411764705881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1801</v>
       </c>
@@ -27600,8 +29535,29 @@
       <c r="N11">
         <v>530</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>90</v>
+      </c>
+      <c r="Q11">
+        <v>2800</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="1"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>142.85714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -27644,8 +29600,29 @@
       <c r="N12">
         <v>531</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>95</v>
+      </c>
+      <c r="Q12">
+        <v>2400</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="1"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="T12">
+        <v>3.4</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>141.66666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2201</v>
       </c>
@@ -27688,8 +29665,29 @@
       <c r="N13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>2000</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>3.8</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2401</v>
       </c>
@@ -27732,8 +29730,29 @@
       <c r="N14">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>105</v>
+      </c>
+      <c r="Q14">
+        <v>2000</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <v>2.8</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2601</v>
       </c>
@@ -27776,8 +29795,29 @@
       <c r="N15">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>110</v>
+      </c>
+      <c r="Q15">
+        <v>1800</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>222.22222222222223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2801</v>
       </c>
@@ -27820,8 +29860,29 @@
       <c r="N16">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>115</v>
+      </c>
+      <c r="Q16">
+        <v>2200</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="1"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="T16">
+        <v>2.4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>109.09090909090908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3002</v>
       </c>
@@ -27864,8 +29925,29 @@
       <c r="N17">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>120</v>
+      </c>
+      <c r="Q17">
+        <v>1600</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="T17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3201</v>
       </c>
@@ -27909,7 +29991,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3401</v>
       </c>
@@ -27953,7 +30035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3601</v>
       </c>
@@ -27997,7 +30079,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3801</v>
       </c>
@@ -28041,7 +30123,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4001</v>
       </c>
@@ -28084,8 +30166,11 @@
       <c r="N22">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4201</v>
       </c>
@@ -28128,8 +30213,14 @@
       <c r="N23">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4401</v>
       </c>
@@ -28172,8 +30263,18 @@
       <c r="N24">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>60</v>
+      </c>
+      <c r="Q24">
+        <v>11.6</v>
+      </c>
+      <c r="R24" s="5">
+        <f>P24/Q24</f>
+        <v>5.1724137931034484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4601</v>
       </c>
@@ -28216,8 +30317,18 @@
       <c r="N25">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>65</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" ref="R25:R36" si="3">P25/Q25</f>
+        <v>7.2222222222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4801</v>
       </c>
@@ -28260,8 +30371,18 @@
       <c r="N26">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>70</v>
+      </c>
+      <c r="Q26">
+        <v>7.4</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4594594594594597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5001</v>
       </c>
@@ -28304,8 +30425,18 @@
       <c r="N27">
         <v>500</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>75</v>
+      </c>
+      <c r="Q27">
+        <v>4.2</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="3"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5201</v>
       </c>
@@ -28348,8 +30479,18 @@
       <c r="N28">
         <v>500</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>80</v>
+      </c>
+      <c r="Q28">
+        <v>5.6</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5401</v>
       </c>
@@ -28392,8 +30533,18 @@
       <c r="N29">
         <v>500</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>85</v>
+      </c>
+      <c r="Q29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="3"/>
+        <v>18.478260869565219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5601</v>
       </c>
@@ -28436,8 +30587,18 @@
       <c r="N30">
         <v>500</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>90</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5801</v>
       </c>
@@ -28480,8 +30641,18 @@
       <c r="N31">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>95</v>
+      </c>
+      <c r="Q31">
+        <v>3.4</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="3"/>
+        <v>27.941176470588236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6001</v>
       </c>
@@ -28524,8 +30695,18 @@
       <c r="N32">
         <v>500</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <v>3.8</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="3"/>
+        <v>26.315789473684212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6202</v>
       </c>
@@ -28568,8 +30749,18 @@
       <c r="N33">
         <v>500</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>105</v>
+      </c>
+      <c r="Q33">
+        <v>2.8</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6401</v>
       </c>
@@ -28612,8 +30803,18 @@
       <c r="N34">
         <v>500</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>110</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6601</v>
       </c>
@@ -28656,8 +30857,18 @@
       <c r="N35">
         <v>500</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>115</v>
+      </c>
+      <c r="Q35">
+        <v>2.4</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="3"/>
+        <v>47.916666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6801</v>
       </c>
@@ -28700,8 +30911,18 @@
       <c r="N36">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>120</v>
+      </c>
+      <c r="Q36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="3"/>
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>7001</v>
       </c>
@@ -28745,7 +30966,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7201</v>
       </c>
@@ -28789,7 +31010,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7401</v>
       </c>
@@ -28833,7 +31054,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7601</v>
       </c>
@@ -28877,7 +31098,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7801</v>
       </c>
@@ -28921,7 +31142,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8001</v>
       </c>
@@ -28965,7 +31186,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8201</v>
       </c>
@@ -29009,7 +31230,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8401</v>
       </c>
@@ -29053,7 +31274,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8601</v>
       </c>
@@ -29097,7 +31318,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>8801</v>
       </c>
@@ -29141,7 +31362,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9001</v>
       </c>
@@ -29185,7 +31406,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9201</v>
       </c>
@@ -29755,6 +31976,5796 @@
       </c>
       <c r="N60">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C54111-70F1-4C5E-AE1F-29ADD829FE9C}">
+  <dimension ref="A1:T198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U39" sqref="U39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3">
+        <v>90</v>
+      </c>
+      <c r="H1" s="3">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3">
+        <v>100</v>
+      </c>
+      <c r="J1" s="3">
+        <v>105</v>
+      </c>
+      <c r="K1" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <f>SUM(B5:B99)</f>
+        <v>49424</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:K3" si="0">SUM(C5:C99)</f>
+        <v>32037</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>23092</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>18361</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>9914</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>8339</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>7293</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>6774</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>5720</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>5725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6">
+        <f>B3/18800</f>
+        <v>2.628936170212766</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C3/12200</f>
+        <v>2.6259836065573769</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D3/8801</f>
+        <v>2.6237927508237702</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E3/7004</f>
+        <v>2.6215019988577954</v>
+      </c>
+      <c r="F4" s="6">
+        <f>F3/3800</f>
+        <v>2.6089473684210525</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G3/3200</f>
+        <v>2.6059375</v>
+      </c>
+      <c r="H4" s="6">
+        <f>H3/2800</f>
+        <v>2.6046428571428573</v>
+      </c>
+      <c r="I4" s="6">
+        <f>I3/2600</f>
+        <v>2.6053846153846152</v>
+      </c>
+      <c r="J4" s="6">
+        <f>J3/2200</f>
+        <v>2.6</v>
+      </c>
+      <c r="K4" s="6">
+        <f>K3/2200</f>
+        <v>2.6022727272727271</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>502</v>
+      </c>
+      <c r="C5">
+        <v>503</v>
+      </c>
+      <c r="D5">
+        <v>503</v>
+      </c>
+      <c r="E5">
+        <v>503</v>
+      </c>
+      <c r="F5">
+        <v>503</v>
+      </c>
+      <c r="G5">
+        <v>503</v>
+      </c>
+      <c r="H5">
+        <v>503</v>
+      </c>
+      <c r="I5">
+        <v>503</v>
+      </c>
+      <c r="J5">
+        <v>503</v>
+      </c>
+      <c r="K5">
+        <v>503</v>
+      </c>
+      <c r="O5">
+        <v>18800</v>
+      </c>
+      <c r="P5">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" ref="Q5:Q14" si="1">1000/O5</f>
+        <v>5.3191489361702128E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>506</v>
+      </c>
+      <c r="C6">
+        <v>506</v>
+      </c>
+      <c r="D6">
+        <v>507</v>
+      </c>
+      <c r="E6">
+        <v>508</v>
+      </c>
+      <c r="F6">
+        <v>508</v>
+      </c>
+      <c r="G6">
+        <v>508</v>
+      </c>
+      <c r="H6">
+        <v>509</v>
+      </c>
+      <c r="I6">
+        <v>510</v>
+      </c>
+      <c r="J6">
+        <v>509</v>
+      </c>
+      <c r="K6">
+        <v>510</v>
+      </c>
+      <c r="O6">
+        <v>12200</v>
+      </c>
+      <c r="P6">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="1"/>
+        <v>8.1967213114754092E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>509</v>
+      </c>
+      <c r="C7">
+        <v>510</v>
+      </c>
+      <c r="D7">
+        <v>511</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7">
+        <v>513</v>
+      </c>
+      <c r="H7">
+        <v>513</v>
+      </c>
+      <c r="I7">
+        <v>514</v>
+      </c>
+      <c r="J7">
+        <v>514</v>
+      </c>
+      <c r="K7">
+        <v>515</v>
+      </c>
+      <c r="O7">
+        <v>8801</v>
+      </c>
+      <c r="P7">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11362345188046813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>601</v>
+      </c>
+      <c r="B8">
+        <v>511</v>
+      </c>
+      <c r="C8">
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <v>513</v>
+      </c>
+      <c r="E8">
+        <v>514</v>
+      </c>
+      <c r="F8">
+        <v>515</v>
+      </c>
+      <c r="G8">
+        <v>516</v>
+      </c>
+      <c r="H8">
+        <v>517</v>
+      </c>
+      <c r="I8">
+        <v>516</v>
+      </c>
+      <c r="J8">
+        <v>518</v>
+      </c>
+      <c r="K8">
+        <v>518</v>
+      </c>
+      <c r="O8">
+        <v>7004</v>
+      </c>
+      <c r="P8">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14277555682467161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>513</v>
+      </c>
+      <c r="C9">
+        <v>515</v>
+      </c>
+      <c r="D9">
+        <v>515</v>
+      </c>
+      <c r="E9">
+        <v>517</v>
+      </c>
+      <c r="F9">
+        <v>518</v>
+      </c>
+      <c r="G9">
+        <v>518</v>
+      </c>
+      <c r="H9">
+        <v>519</v>
+      </c>
+      <c r="I9">
+        <v>520</v>
+      </c>
+      <c r="J9">
+        <v>521</v>
+      </c>
+      <c r="K9">
+        <v>521</v>
+      </c>
+      <c r="O9">
+        <v>3800</v>
+      </c>
+      <c r="P9">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1001</v>
+      </c>
+      <c r="B10">
+        <v>515</v>
+      </c>
+      <c r="C10">
+        <v>516</v>
+      </c>
+      <c r="D10">
+        <v>518</v>
+      </c>
+      <c r="E10">
+        <v>518</v>
+      </c>
+      <c r="F10">
+        <v>519</v>
+      </c>
+      <c r="G10">
+        <v>520</v>
+      </c>
+      <c r="H10">
+        <v>521</v>
+      </c>
+      <c r="I10">
+        <v>522</v>
+      </c>
+      <c r="J10">
+        <v>522</v>
+      </c>
+      <c r="K10">
+        <v>522</v>
+      </c>
+      <c r="O10">
+        <v>3204</v>
+      </c>
+      <c r="P10">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31210986267166041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1201</v>
+      </c>
+      <c r="B11">
+        <v>516</v>
+      </c>
+      <c r="C11">
+        <v>518</v>
+      </c>
+      <c r="D11">
+        <v>519</v>
+      </c>
+      <c r="E11">
+        <v>520</v>
+      </c>
+      <c r="F11">
+        <v>521</v>
+      </c>
+      <c r="G11">
+        <v>522</v>
+      </c>
+      <c r="H11">
+        <v>523</v>
+      </c>
+      <c r="I11">
+        <v>524</v>
+      </c>
+      <c r="J11">
+        <v>524</v>
+      </c>
+      <c r="K11">
+        <v>524</v>
+      </c>
+      <c r="O11">
+        <v>2803</v>
+      </c>
+      <c r="P11">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35676061362825545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1401</v>
+      </c>
+      <c r="B12">
+        <v>517</v>
+      </c>
+      <c r="C12">
+        <v>519</v>
+      </c>
+      <c r="D12">
+        <v>520</v>
+      </c>
+      <c r="E12">
+        <v>521</v>
+      </c>
+      <c r="F12">
+        <v>522</v>
+      </c>
+      <c r="G12">
+        <v>523</v>
+      </c>
+      <c r="H12">
+        <v>524</v>
+      </c>
+      <c r="I12">
+        <v>525</v>
+      </c>
+      <c r="J12">
+        <v>526</v>
+      </c>
+      <c r="K12">
+        <v>526</v>
+      </c>
+      <c r="O12">
+        <v>2602</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3843197540353574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1601</v>
+      </c>
+      <c r="B13">
+        <v>519</v>
+      </c>
+      <c r="C13">
+        <v>520</v>
+      </c>
+      <c r="D13">
+        <v>521</v>
+      </c>
+      <c r="E13">
+        <v>523</v>
+      </c>
+      <c r="F13">
+        <v>523</v>
+      </c>
+      <c r="G13">
+        <v>524</v>
+      </c>
+      <c r="H13">
+        <v>525</v>
+      </c>
+      <c r="I13">
+        <v>527</v>
+      </c>
+      <c r="J13">
+        <v>527</v>
+      </c>
+      <c r="K13">
+        <v>528</v>
+      </c>
+      <c r="O13">
+        <v>2202</v>
+      </c>
+      <c r="P13">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45413260672116257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1802</v>
+      </c>
+      <c r="B14">
+        <v>520</v>
+      </c>
+      <c r="C14">
+        <v>521</v>
+      </c>
+      <c r="D14">
+        <v>522</v>
+      </c>
+      <c r="E14">
+        <v>524</v>
+      </c>
+      <c r="F14">
+        <v>524</v>
+      </c>
+      <c r="G14">
+        <v>525</v>
+      </c>
+      <c r="H14">
+        <v>526</v>
+      </c>
+      <c r="I14">
+        <v>527</v>
+      </c>
+      <c r="J14">
+        <v>528</v>
+      </c>
+      <c r="K14">
+        <v>529</v>
+      </c>
+      <c r="O14">
+        <v>2202</v>
+      </c>
+      <c r="P14">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45413260672116257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2001</v>
+      </c>
+      <c r="B15">
+        <v>520</v>
+      </c>
+      <c r="C15">
+        <v>522</v>
+      </c>
+      <c r="D15">
+        <v>523</v>
+      </c>
+      <c r="E15">
+        <v>524</v>
+      </c>
+      <c r="F15">
+        <v>525</v>
+      </c>
+      <c r="G15">
+        <v>527</v>
+      </c>
+      <c r="H15">
+        <v>528</v>
+      </c>
+      <c r="I15">
+        <v>528</v>
+      </c>
+      <c r="J15">
+        <v>528</v>
+      </c>
+      <c r="K15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2202</v>
+      </c>
+      <c r="B16">
+        <v>521</v>
+      </c>
+      <c r="C16">
+        <v>522</v>
+      </c>
+      <c r="D16">
+        <v>524</v>
+      </c>
+      <c r="E16">
+        <v>525</v>
+      </c>
+      <c r="F16">
+        <v>527</v>
+      </c>
+      <c r="G16">
+        <v>527</v>
+      </c>
+      <c r="H16">
+        <v>528</v>
+      </c>
+      <c r="I16">
+        <v>529</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2403</v>
+      </c>
+      <c r="B17">
+        <v>521</v>
+      </c>
+      <c r="C17">
+        <v>523</v>
+      </c>
+      <c r="D17">
+        <v>525</v>
+      </c>
+      <c r="E17">
+        <v>526</v>
+      </c>
+      <c r="F17">
+        <v>527</v>
+      </c>
+      <c r="G17">
+        <v>527</v>
+      </c>
+      <c r="H17">
+        <v>528</v>
+      </c>
+      <c r="I17">
+        <v>529</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2602</v>
+      </c>
+      <c r="B18">
+        <v>522</v>
+      </c>
+      <c r="C18">
+        <v>524</v>
+      </c>
+      <c r="D18">
+        <v>526</v>
+      </c>
+      <c r="E18">
+        <v>527</v>
+      </c>
+      <c r="F18">
+        <v>528</v>
+      </c>
+      <c r="G18">
+        <v>528</v>
+      </c>
+      <c r="H18">
+        <v>529</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2803</v>
+      </c>
+      <c r="B19">
+        <v>523</v>
+      </c>
+      <c r="C19">
+        <v>524</v>
+      </c>
+      <c r="D19">
+        <v>526</v>
+      </c>
+      <c r="E19">
+        <v>527</v>
+      </c>
+      <c r="F19">
+        <v>528</v>
+      </c>
+      <c r="G19">
+        <v>529</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3003</v>
+      </c>
+      <c r="B20">
+        <v>523</v>
+      </c>
+      <c r="C20">
+        <v>525</v>
+      </c>
+      <c r="D20">
+        <v>526</v>
+      </c>
+      <c r="E20">
+        <v>527</v>
+      </c>
+      <c r="F20">
+        <v>528</v>
+      </c>
+      <c r="G20">
+        <v>529</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3204</v>
+      </c>
+      <c r="B21">
+        <v>524</v>
+      </c>
+      <c r="C21">
+        <v>525</v>
+      </c>
+      <c r="D21">
+        <v>527</v>
+      </c>
+      <c r="E21">
+        <v>528</v>
+      </c>
+      <c r="F21">
+        <v>528</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3403</v>
+      </c>
+      <c r="B22">
+        <v>524</v>
+      </c>
+      <c r="C22">
+        <v>526</v>
+      </c>
+      <c r="D22">
+        <v>527</v>
+      </c>
+      <c r="E22">
+        <v>528</v>
+      </c>
+      <c r="F22">
+        <v>529</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3604</v>
+      </c>
+      <c r="B23">
+        <v>524</v>
+      </c>
+      <c r="C23">
+        <v>526</v>
+      </c>
+      <c r="D23">
+        <v>527</v>
+      </c>
+      <c r="E23">
+        <v>528</v>
+      </c>
+      <c r="F23">
+        <v>529</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3800</v>
+      </c>
+      <c r="B24">
+        <v>525</v>
+      </c>
+      <c r="C24">
+        <v>526</v>
+      </c>
+      <c r="D24">
+        <v>528</v>
+      </c>
+      <c r="E24">
+        <v>529</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4004</v>
+      </c>
+      <c r="B25">
+        <v>525</v>
+      </c>
+      <c r="C25">
+        <v>527</v>
+      </c>
+      <c r="D25">
+        <v>528</v>
+      </c>
+      <c r="E25">
+        <v>529</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4200</v>
+      </c>
+      <c r="B26">
+        <v>525</v>
+      </c>
+      <c r="C26">
+        <v>527</v>
+      </c>
+      <c r="D26">
+        <v>528</v>
+      </c>
+      <c r="E26">
+        <v>529</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4400</v>
+      </c>
+      <c r="B27">
+        <v>526</v>
+      </c>
+      <c r="C27">
+        <v>527</v>
+      </c>
+      <c r="D27">
+        <v>528</v>
+      </c>
+      <c r="E27">
+        <v>529</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4600</v>
+      </c>
+      <c r="B28">
+        <v>526</v>
+      </c>
+      <c r="C28">
+        <v>527</v>
+      </c>
+      <c r="D28">
+        <v>529</v>
+      </c>
+      <c r="E28">
+        <v>529</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4800</v>
+      </c>
+      <c r="B29">
+        <v>526</v>
+      </c>
+      <c r="C29">
+        <v>527</v>
+      </c>
+      <c r="D29">
+        <v>529</v>
+      </c>
+      <c r="E29">
+        <v>528</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5001</v>
+      </c>
+      <c r="B30">
+        <v>526</v>
+      </c>
+      <c r="C30">
+        <v>528</v>
+      </c>
+      <c r="D30">
+        <v>529</v>
+      </c>
+      <c r="E30">
+        <v>529</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5201</v>
+      </c>
+      <c r="B31">
+        <v>527</v>
+      </c>
+      <c r="C31">
+        <v>528</v>
+      </c>
+      <c r="D31">
+        <v>529</v>
+      </c>
+      <c r="E31">
+        <v>529</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5401</v>
+      </c>
+      <c r="B32">
+        <v>527</v>
+      </c>
+      <c r="C32">
+        <v>528</v>
+      </c>
+      <c r="D32">
+        <v>529</v>
+      </c>
+      <c r="E32">
+        <v>528</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5602</v>
+      </c>
+      <c r="B33">
+        <v>527</v>
+      </c>
+      <c r="C33">
+        <v>528</v>
+      </c>
+      <c r="D33">
+        <v>529</v>
+      </c>
+      <c r="E33">
+        <v>529</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5801</v>
+      </c>
+      <c r="B34">
+        <v>527</v>
+      </c>
+      <c r="C34">
+        <v>528</v>
+      </c>
+      <c r="D34">
+        <v>528</v>
+      </c>
+      <c r="E34">
+        <v>528</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34">
+        <v>5.973E-3</v>
+      </c>
+      <c r="P34">
+        <v>-0.33506999999999998</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0.4541</v>
+      </c>
+      <c r="R34" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6002</v>
+      </c>
+      <c r="B35">
+        <v>527</v>
+      </c>
+      <c r="C35">
+        <v>529</v>
+      </c>
+      <c r="D35">
+        <v>528</v>
+      </c>
+      <c r="E35">
+        <v>529</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35">
+        <v>2.4080000000000001E-2</v>
+      </c>
+      <c r="P35">
+        <v>-1.7836000000000001</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="R35" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6202</v>
+      </c>
+      <c r="B36">
+        <v>528</v>
+      </c>
+      <c r="C36">
+        <v>528</v>
+      </c>
+      <c r="D36">
+        <v>528</v>
+      </c>
+      <c r="E36">
+        <v>529</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="P36">
+        <v>-0.53239999999999998</v>
+      </c>
+      <c r="Q36" s="9">
+        <f>Q34-Q35</f>
+        <v>0.40090000000000003</v>
+      </c>
+      <c r="R36" s="9">
+        <f>R34-R35</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6403</v>
+      </c>
+      <c r="B37">
+        <v>527</v>
+      </c>
+      <c r="C37">
+        <v>528</v>
+      </c>
+      <c r="D37">
+        <v>528</v>
+      </c>
+      <c r="E37">
+        <v>529</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="P37">
+        <v>-0.16569999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6603</v>
+      </c>
+      <c r="B38">
+        <v>528</v>
+      </c>
+      <c r="C38">
+        <v>528</v>
+      </c>
+      <c r="D38">
+        <v>528</v>
+      </c>
+      <c r="E38">
+        <v>529</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <v>1.396E-2</v>
+      </c>
+      <c r="P38">
+        <v>-1.0117</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38">
+        <f>Q36/R36</f>
+        <v>1.00225E-2</v>
+      </c>
+      <c r="T38">
+        <f>R38*R34+R39</f>
+        <v>0.45410000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6803</v>
+      </c>
+      <c r="B39">
+        <v>528</v>
+      </c>
+      <c r="C39">
+        <v>528</v>
+      </c>
+      <c r="D39">
+        <v>528</v>
+      </c>
+      <c r="E39">
+        <v>529</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.4541</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39">
+        <f>Q35-R38*R35</f>
+        <v>-0.59826250000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7004</v>
+      </c>
+      <c r="B40">
+        <v>528</v>
+      </c>
+      <c r="C40">
+        <v>528</v>
+      </c>
+      <c r="D40">
+        <v>528</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7203</v>
+      </c>
+      <c r="B41">
+        <v>528</v>
+      </c>
+      <c r="C41">
+        <v>528</v>
+      </c>
+      <c r="D41">
+        <v>528</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7404</v>
+      </c>
+      <c r="B42">
+        <v>528</v>
+      </c>
+      <c r="C42">
+        <v>528</v>
+      </c>
+      <c r="D42">
+        <v>529</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7604</v>
+      </c>
+      <c r="B43">
+        <v>528</v>
+      </c>
+      <c r="C43">
+        <v>528</v>
+      </c>
+      <c r="D43">
+        <v>528</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43">
+        <v>1.0023000000000001E-2</v>
+      </c>
+      <c r="P43">
+        <v>-0.59826000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7804</v>
+      </c>
+      <c r="B44">
+        <v>528</v>
+      </c>
+      <c r="C44">
+        <v>528</v>
+      </c>
+      <c r="D44">
+        <v>529</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8000</v>
+      </c>
+      <c r="B45">
+        <v>528</v>
+      </c>
+      <c r="C45">
+        <v>528</v>
+      </c>
+      <c r="D45">
+        <v>529</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>8200</v>
+      </c>
+      <c r="B46">
+        <v>528</v>
+      </c>
+      <c r="C46">
+        <v>528</v>
+      </c>
+      <c r="D46">
+        <v>529</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>8400</v>
+      </c>
+      <c r="B47">
+        <v>528</v>
+      </c>
+      <c r="C47">
+        <v>528</v>
+      </c>
+      <c r="D47">
+        <v>529</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>8600</v>
+      </c>
+      <c r="B48">
+        <v>528</v>
+      </c>
+      <c r="C48">
+        <v>528</v>
+      </c>
+      <c r="D48">
+        <v>529</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8801</v>
+      </c>
+      <c r="B49">
+        <v>528</v>
+      </c>
+      <c r="C49">
+        <v>528</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>9000</v>
+      </c>
+      <c r="B50">
+        <v>528</v>
+      </c>
+      <c r="C50">
+        <v>528</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9201</v>
+      </c>
+      <c r="B51">
+        <v>528</v>
+      </c>
+      <c r="C51">
+        <v>528</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9402</v>
+      </c>
+      <c r="B52">
+        <v>528</v>
+      </c>
+      <c r="C52">
+        <v>528</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9602</v>
+      </c>
+      <c r="B53">
+        <v>528</v>
+      </c>
+      <c r="C53">
+        <v>529</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9802</v>
+      </c>
+      <c r="B54">
+        <v>528</v>
+      </c>
+      <c r="C54">
+        <v>528</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10002</v>
+      </c>
+      <c r="B55">
+        <v>528</v>
+      </c>
+      <c r="C55">
+        <v>529</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10203</v>
+      </c>
+      <c r="B56">
+        <v>528</v>
+      </c>
+      <c r="C56">
+        <v>528</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10403</v>
+      </c>
+      <c r="B57">
+        <v>528</v>
+      </c>
+      <c r="C57">
+        <v>528</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>10603</v>
+      </c>
+      <c r="B58">
+        <v>528</v>
+      </c>
+      <c r="C58">
+        <v>529</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>10804</v>
+      </c>
+      <c r="B59">
+        <v>528</v>
+      </c>
+      <c r="C59">
+        <v>529</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>11004</v>
+      </c>
+      <c r="B60">
+        <v>528</v>
+      </c>
+      <c r="C60">
+        <v>529</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>11204</v>
+      </c>
+      <c r="B61">
+        <v>528</v>
+      </c>
+      <c r="C61">
+        <v>529</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>11400</v>
+      </c>
+      <c r="B62">
+        <v>528</v>
+      </c>
+      <c r="C62">
+        <v>529</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>11600</v>
+      </c>
+      <c r="B63">
+        <v>528</v>
+      </c>
+      <c r="C63">
+        <v>529</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>11800</v>
+      </c>
+      <c r="B64">
+        <v>528</v>
+      </c>
+      <c r="C64">
+        <v>529</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>12001</v>
+      </c>
+      <c r="B65">
+        <v>528</v>
+      </c>
+      <c r="C65">
+        <v>529</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>12201</v>
+      </c>
+      <c r="B66">
+        <v>528</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>12401</v>
+      </c>
+      <c r="B67">
+        <v>528</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>12602</v>
+      </c>
+      <c r="B68">
+        <v>528</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>12803</v>
+      </c>
+      <c r="B69">
+        <v>528</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>13002</v>
+      </c>
+      <c r="B70">
+        <v>528</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>13203</v>
+      </c>
+      <c r="B71">
+        <v>528</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>13404</v>
+      </c>
+      <c r="B72">
+        <v>528</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>13603</v>
+      </c>
+      <c r="B73">
+        <v>528</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>13804</v>
+      </c>
+      <c r="B74">
+        <v>528</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>14000</v>
+      </c>
+      <c r="B75">
+        <v>528</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>14204</v>
+      </c>
+      <c r="B76">
+        <v>528</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>14400</v>
+      </c>
+      <c r="B77">
+        <v>528</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>14601</v>
+      </c>
+      <c r="B78">
+        <v>528</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>14800</v>
+      </c>
+      <c r="B79">
+        <v>528</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>15001</v>
+      </c>
+      <c r="B80">
+        <v>528</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>15202</v>
+      </c>
+      <c r="B81">
+        <v>529</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>15401</v>
+      </c>
+      <c r="B82">
+        <v>528</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>15602</v>
+      </c>
+      <c r="B83">
+        <v>529</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>15803</v>
+      </c>
+      <c r="B84">
+        <v>529</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>16003</v>
+      </c>
+      <c r="B85">
+        <v>529</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>16203</v>
+      </c>
+      <c r="B86">
+        <v>529</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>16404</v>
+      </c>
+      <c r="B87">
+        <v>529</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>16604</v>
+      </c>
+      <c r="B88">
+        <v>529</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>16804</v>
+      </c>
+      <c r="B89">
+        <v>529</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>17000</v>
+      </c>
+      <c r="B90">
+        <v>529</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>17200</v>
+      </c>
+      <c r="B91">
+        <v>529</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>17400</v>
+      </c>
+      <c r="B92">
+        <v>529</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>17601</v>
+      </c>
+      <c r="B93">
+        <v>529</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>17801</v>
+      </c>
+      <c r="B94">
+        <v>529</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>18001</v>
+      </c>
+      <c r="B95">
+        <v>529</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>18202</v>
+      </c>
+      <c r="B96">
+        <v>529</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>18402</v>
+      </c>
+      <c r="B97">
+        <v>529</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>18602</v>
+      </c>
+      <c r="B98">
+        <v>529</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>18802</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M100" t="s">
+        <v>19</v>
+      </c>
+      <c r="O100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3">
+        <v>65</v>
+      </c>
+      <c r="C101" s="3">
+        <v>70</v>
+      </c>
+      <c r="D101" s="3">
+        <v>75</v>
+      </c>
+      <c r="E101" s="3">
+        <v>80</v>
+      </c>
+      <c r="F101" s="3">
+        <v>85</v>
+      </c>
+      <c r="G101" s="3">
+        <v>90</v>
+      </c>
+      <c r="H101" s="3">
+        <v>95</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>105</v>
+      </c>
+      <c r="K101" s="3">
+        <v>110</v>
+      </c>
+      <c r="M101" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N101">
+        <v>65</v>
+      </c>
+      <c r="O101" s="7">
+        <f>1000/M101</f>
+        <v>5.1546391752577317E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>529</v>
+      </c>
+      <c r="C102">
+        <v>529</v>
+      </c>
+      <c r="D102">
+        <v>529</v>
+      </c>
+      <c r="E102">
+        <v>529</v>
+      </c>
+      <c r="F102">
+        <v>529</v>
+      </c>
+      <c r="G102">
+        <v>529</v>
+      </c>
+      <c r="H102">
+        <v>529</v>
+      </c>
+      <c r="I102">
+        <v>529</v>
+      </c>
+      <c r="J102">
+        <v>529</v>
+      </c>
+      <c r="K102">
+        <v>528</v>
+      </c>
+      <c r="M102">
+        <v>16801</v>
+      </c>
+      <c r="N102">
+        <v>70</v>
+      </c>
+      <c r="O102" s="7">
+        <f t="shared" ref="O102:O110" si="2">1000/M102</f>
+        <v>5.9520266650794594E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>200</v>
+      </c>
+      <c r="B103">
+        <v>529</v>
+      </c>
+      <c r="C103">
+        <v>529</v>
+      </c>
+      <c r="D103">
+        <v>529</v>
+      </c>
+      <c r="E103">
+        <v>529</v>
+      </c>
+      <c r="F103">
+        <v>529</v>
+      </c>
+      <c r="G103">
+        <v>528</v>
+      </c>
+      <c r="H103">
+        <v>528</v>
+      </c>
+      <c r="I103">
+        <v>528</v>
+      </c>
+      <c r="J103">
+        <v>528</v>
+      </c>
+      <c r="K103">
+        <v>528</v>
+      </c>
+      <c r="M103">
+        <v>14200</v>
+      </c>
+      <c r="N103">
+        <v>75</v>
+      </c>
+      <c r="O103" s="7">
+        <f t="shared" si="2"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>400</v>
+      </c>
+      <c r="B104">
+        <v>529</v>
+      </c>
+      <c r="C104">
+        <v>529</v>
+      </c>
+      <c r="D104">
+        <v>529</v>
+      </c>
+      <c r="E104">
+        <v>529</v>
+      </c>
+      <c r="F104">
+        <v>528</v>
+      </c>
+      <c r="G104">
+        <v>528</v>
+      </c>
+      <c r="H104">
+        <v>528</v>
+      </c>
+      <c r="I104">
+        <v>527</v>
+      </c>
+      <c r="J104">
+        <v>527</v>
+      </c>
+      <c r="K104">
+        <v>527</v>
+      </c>
+      <c r="M104">
+        <v>11400</v>
+      </c>
+      <c r="N104">
+        <v>80</v>
+      </c>
+      <c r="O104" s="7">
+        <f t="shared" si="2"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>600</v>
+      </c>
+      <c r="B105">
+        <v>529</v>
+      </c>
+      <c r="C105">
+        <v>529</v>
+      </c>
+      <c r="D105">
+        <v>528</v>
+      </c>
+      <c r="E105">
+        <v>528</v>
+      </c>
+      <c r="F105">
+        <v>528</v>
+      </c>
+      <c r="G105">
+        <v>528</v>
+      </c>
+      <c r="H105">
+        <v>528</v>
+      </c>
+      <c r="I105">
+        <v>527</v>
+      </c>
+      <c r="J105">
+        <v>526</v>
+      </c>
+      <c r="K105">
+        <v>527</v>
+      </c>
+      <c r="M105">
+        <v>6800</v>
+      </c>
+      <c r="N105">
+        <v>85</v>
+      </c>
+      <c r="O105" s="7">
+        <f t="shared" si="2"/>
+        <v>0.14705882352941177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>801</v>
+      </c>
+      <c r="B106">
+        <v>529</v>
+      </c>
+      <c r="C106">
+        <v>528</v>
+      </c>
+      <c r="D106">
+        <v>528</v>
+      </c>
+      <c r="E106">
+        <v>528</v>
+      </c>
+      <c r="F106">
+        <v>527</v>
+      </c>
+      <c r="G106">
+        <v>528</v>
+      </c>
+      <c r="H106">
+        <v>527</v>
+      </c>
+      <c r="I106">
+        <v>526</v>
+      </c>
+      <c r="J106">
+        <v>526</v>
+      </c>
+      <c r="K106">
+        <v>526</v>
+      </c>
+      <c r="M106">
+        <v>6000</v>
+      </c>
+      <c r="N106">
+        <v>90</v>
+      </c>
+      <c r="O106" s="7">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1000</v>
+      </c>
+      <c r="B107">
+        <v>528</v>
+      </c>
+      <c r="C107">
+        <v>528</v>
+      </c>
+      <c r="D107">
+        <v>528</v>
+      </c>
+      <c r="E107">
+        <v>528</v>
+      </c>
+      <c r="F107">
+        <v>527</v>
+      </c>
+      <c r="G107">
+        <v>527</v>
+      </c>
+      <c r="H107">
+        <v>526</v>
+      </c>
+      <c r="I107">
+        <v>526</v>
+      </c>
+      <c r="J107">
+        <v>525</v>
+      </c>
+      <c r="K107">
+        <v>525</v>
+      </c>
+      <c r="M107">
+        <v>5200</v>
+      </c>
+      <c r="N107">
+        <v>95</v>
+      </c>
+      <c r="O107" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1200</v>
+      </c>
+      <c r="B108">
+        <v>528</v>
+      </c>
+      <c r="C108">
+        <v>528</v>
+      </c>
+      <c r="D108">
+        <v>528</v>
+      </c>
+      <c r="E108">
+        <v>528</v>
+      </c>
+      <c r="F108">
+        <v>527</v>
+      </c>
+      <c r="G108">
+        <v>527</v>
+      </c>
+      <c r="H108">
+        <v>526</v>
+      </c>
+      <c r="I108">
+        <v>525</v>
+      </c>
+      <c r="J108">
+        <v>524</v>
+      </c>
+      <c r="K108">
+        <v>524</v>
+      </c>
+      <c r="M108">
+        <v>4001</v>
+      </c>
+      <c r="N108">
+        <v>100</v>
+      </c>
+      <c r="O108" s="7">
+        <f t="shared" si="2"/>
+        <v>0.24993751562109473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1400</v>
+      </c>
+      <c r="B109">
+        <v>528</v>
+      </c>
+      <c r="C109">
+        <v>528</v>
+      </c>
+      <c r="D109">
+        <v>528</v>
+      </c>
+      <c r="E109">
+        <v>528</v>
+      </c>
+      <c r="F109">
+        <v>527</v>
+      </c>
+      <c r="G109">
+        <v>526</v>
+      </c>
+      <c r="H109">
+        <v>526</v>
+      </c>
+      <c r="I109">
+        <v>524</v>
+      </c>
+      <c r="J109">
+        <v>524</v>
+      </c>
+      <c r="K109">
+        <v>524</v>
+      </c>
+      <c r="M109">
+        <v>3400</v>
+      </c>
+      <c r="N109">
+        <v>105</v>
+      </c>
+      <c r="O109" s="7">
+        <f t="shared" si="2"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1600</v>
+      </c>
+      <c r="B110">
+        <v>528</v>
+      </c>
+      <c r="C110">
+        <v>528</v>
+      </c>
+      <c r="D110">
+        <v>528</v>
+      </c>
+      <c r="E110">
+        <v>527</v>
+      </c>
+      <c r="F110">
+        <v>526</v>
+      </c>
+      <c r="G110">
+        <v>526</v>
+      </c>
+      <c r="H110">
+        <v>525</v>
+      </c>
+      <c r="I110">
+        <v>523</v>
+      </c>
+      <c r="J110">
+        <v>523</v>
+      </c>
+      <c r="K110">
+        <v>523</v>
+      </c>
+      <c r="M110">
+        <v>3400</v>
+      </c>
+      <c r="N110">
+        <v>110</v>
+      </c>
+      <c r="O110" s="7">
+        <f t="shared" si="2"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1800</v>
+      </c>
+      <c r="B111">
+        <v>528</v>
+      </c>
+      <c r="C111">
+        <v>528</v>
+      </c>
+      <c r="D111">
+        <v>527</v>
+      </c>
+      <c r="E111">
+        <v>527</v>
+      </c>
+      <c r="F111">
+        <v>526</v>
+      </c>
+      <c r="G111">
+        <v>526</v>
+      </c>
+      <c r="H111">
+        <v>525</v>
+      </c>
+      <c r="I111">
+        <v>523</v>
+      </c>
+      <c r="J111">
+        <v>522</v>
+      </c>
+      <c r="K111">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2000</v>
+      </c>
+      <c r="B112">
+        <v>528</v>
+      </c>
+      <c r="C112">
+        <v>528</v>
+      </c>
+      <c r="D112">
+        <v>527</v>
+      </c>
+      <c r="E112">
+        <v>527</v>
+      </c>
+      <c r="F112">
+        <v>526</v>
+      </c>
+      <c r="G112">
+        <v>525</v>
+      </c>
+      <c r="H112">
+        <v>524</v>
+      </c>
+      <c r="I112">
+        <v>522</v>
+      </c>
+      <c r="J112">
+        <v>521</v>
+      </c>
+      <c r="K112">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2200</v>
+      </c>
+      <c r="B113">
+        <v>528</v>
+      </c>
+      <c r="C113">
+        <v>528</v>
+      </c>
+      <c r="D113">
+        <v>527</v>
+      </c>
+      <c r="E113">
+        <v>527</v>
+      </c>
+      <c r="F113">
+        <v>525</v>
+      </c>
+      <c r="G113">
+        <v>525</v>
+      </c>
+      <c r="H113">
+        <v>524</v>
+      </c>
+      <c r="I113">
+        <v>521</v>
+      </c>
+      <c r="J113">
+        <v>520</v>
+      </c>
+      <c r="K113">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2400</v>
+      </c>
+      <c r="B114">
+        <v>528</v>
+      </c>
+      <c r="C114">
+        <v>527</v>
+      </c>
+      <c r="D114">
+        <v>527</v>
+      </c>
+      <c r="E114">
+        <v>527</v>
+      </c>
+      <c r="F114">
+        <v>525</v>
+      </c>
+      <c r="G114">
+        <v>524</v>
+      </c>
+      <c r="H114">
+        <v>523</v>
+      </c>
+      <c r="I114">
+        <v>520</v>
+      </c>
+      <c r="J114">
+        <v>519</v>
+      </c>
+      <c r="K114">
+        <v>519</v>
+      </c>
+      <c r="M114" t="s">
+        <v>22</v>
+      </c>
+      <c r="N114" t="s">
+        <v>23</v>
+      </c>
+      <c r="O114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2600</v>
+      </c>
+      <c r="B115">
+        <v>528</v>
+      </c>
+      <c r="C115">
+        <v>527</v>
+      </c>
+      <c r="D115">
+        <v>527</v>
+      </c>
+      <c r="E115">
+        <v>527</v>
+      </c>
+      <c r="F115">
+        <v>525</v>
+      </c>
+      <c r="G115">
+        <v>524</v>
+      </c>
+      <c r="H115">
+        <v>522</v>
+      </c>
+      <c r="I115">
+        <v>520</v>
+      </c>
+      <c r="J115">
+        <v>518</v>
+      </c>
+      <c r="K115">
+        <v>518</v>
+      </c>
+      <c r="M115" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115">
+        <v>-2.4130000000000002E-3</v>
+      </c>
+      <c r="O115">
+        <v>-0.10537000000000001</v>
+      </c>
+      <c r="P115" s="8">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2800</v>
+      </c>
+      <c r="B116">
+        <v>527</v>
+      </c>
+      <c r="C116">
+        <v>527</v>
+      </c>
+      <c r="D116">
+        <v>527</v>
+      </c>
+      <c r="E116">
+        <v>526</v>
+      </c>
+      <c r="F116">
+        <v>524</v>
+      </c>
+      <c r="G116">
+        <v>523</v>
+      </c>
+      <c r="H116">
+        <v>522</v>
+      </c>
+      <c r="I116">
+        <v>519</v>
+      </c>
+      <c r="J116">
+        <v>517</v>
+      </c>
+      <c r="K116">
+        <v>517</v>
+      </c>
+      <c r="M116" t="s">
+        <v>27</v>
+      </c>
+      <c r="N116">
+        <v>1.188E-2</v>
+      </c>
+      <c r="O116">
+        <v>-0.86270000000000002</v>
+      </c>
+      <c r="P116" s="8">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3000</v>
+      </c>
+      <c r="B117">
+        <v>527</v>
+      </c>
+      <c r="C117">
+        <v>527</v>
+      </c>
+      <c r="D117">
+        <v>527</v>
+      </c>
+      <c r="E117">
+        <v>527</v>
+      </c>
+      <c r="F117">
+        <v>524</v>
+      </c>
+      <c r="G117">
+        <v>523</v>
+      </c>
+      <c r="H117">
+        <v>521</v>
+      </c>
+      <c r="I117">
+        <v>518</v>
+      </c>
+      <c r="J117">
+        <v>516</v>
+      </c>
+      <c r="K117">
+        <v>516</v>
+      </c>
+      <c r="M117" t="s">
+        <v>28</v>
+      </c>
+      <c r="N117">
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="O117">
+        <v>-0.23710000000000001</v>
+      </c>
+      <c r="P117" s="9">
+        <f>P115-P116</f>
+        <v>0.24259999999999998</v>
+      </c>
+      <c r="Q117" s="9">
+        <f>Q115-Q116</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3200</v>
+      </c>
+      <c r="B118">
+        <v>527</v>
+      </c>
+      <c r="C118">
+        <v>527</v>
+      </c>
+      <c r="D118">
+        <v>527</v>
+      </c>
+      <c r="E118">
+        <v>527</v>
+      </c>
+      <c r="F118">
+        <v>523</v>
+      </c>
+      <c r="G118">
+        <v>522</v>
+      </c>
+      <c r="H118">
+        <v>520</v>
+      </c>
+      <c r="I118">
+        <v>517</v>
+      </c>
+      <c r="J118">
+        <v>515</v>
+      </c>
+      <c r="K118">
+        <v>515</v>
+      </c>
+      <c r="M118" t="s">
+        <v>33</v>
+      </c>
+      <c r="N118">
+        <v>1.018E-2</v>
+      </c>
+      <c r="O118">
+        <v>-0.77480000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3400</v>
+      </c>
+      <c r="B119">
+        <v>527</v>
+      </c>
+      <c r="C119">
+        <v>527</v>
+      </c>
+      <c r="D119">
+        <v>527</v>
+      </c>
+      <c r="E119">
+        <v>526</v>
+      </c>
+      <c r="F119">
+        <v>523</v>
+      </c>
+      <c r="G119">
+        <v>522</v>
+      </c>
+      <c r="H119">
+        <v>520</v>
+      </c>
+      <c r="I119">
+        <v>516</v>
+      </c>
+      <c r="M119" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="P119" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q119">
+        <f>P117/Q117</f>
+        <v>6.0649999999999992E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3600</v>
+      </c>
+      <c r="B120">
+        <v>527</v>
+      </c>
+      <c r="C120">
+        <v>527</v>
+      </c>
+      <c r="D120">
+        <v>527</v>
+      </c>
+      <c r="E120">
+        <v>526</v>
+      </c>
+      <c r="F120">
+        <v>522</v>
+      </c>
+      <c r="G120">
+        <v>521</v>
+      </c>
+      <c r="H120">
+        <v>519</v>
+      </c>
+      <c r="I120">
+        <v>515</v>
+      </c>
+      <c r="P120" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q120">
+        <f>P116-Q119*Q116</f>
+        <v>-0.34272499999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>3800</v>
+      </c>
+      <c r="B121">
+        <v>527</v>
+      </c>
+      <c r="C121">
+        <v>527</v>
+      </c>
+      <c r="D121">
+        <v>527</v>
+      </c>
+      <c r="E121">
+        <v>526</v>
+      </c>
+      <c r="F121">
+        <v>522</v>
+      </c>
+      <c r="G121">
+        <v>521</v>
+      </c>
+      <c r="H121">
+        <v>518</v>
+      </c>
+      <c r="I121">
+        <v>514</v>
+      </c>
+      <c r="M121" t="s">
+        <v>34</v>
+      </c>
+      <c r="N121">
+        <v>6.0650000000000001E-3</v>
+      </c>
+      <c r="O121">
+        <v>-0.34272999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>4001</v>
+      </c>
+      <c r="B122">
+        <v>527</v>
+      </c>
+      <c r="C122">
+        <v>527</v>
+      </c>
+      <c r="D122">
+        <v>526</v>
+      </c>
+      <c r="E122">
+        <v>526</v>
+      </c>
+      <c r="F122">
+        <v>521</v>
+      </c>
+      <c r="G122">
+        <v>520</v>
+      </c>
+      <c r="H122">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>4200</v>
+      </c>
+      <c r="B123">
+        <v>526</v>
+      </c>
+      <c r="C123">
+        <v>526</v>
+      </c>
+      <c r="D123">
+        <v>526</v>
+      </c>
+      <c r="E123">
+        <v>526</v>
+      </c>
+      <c r="F123">
+        <v>521</v>
+      </c>
+      <c r="G123">
+        <v>519</v>
+      </c>
+      <c r="H123">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>4400</v>
+      </c>
+      <c r="B124">
+        <v>526</v>
+      </c>
+      <c r="C124">
+        <v>527</v>
+      </c>
+      <c r="D124">
+        <v>526</v>
+      </c>
+      <c r="E124">
+        <v>526</v>
+      </c>
+      <c r="F124">
+        <v>520</v>
+      </c>
+      <c r="G124">
+        <v>519</v>
+      </c>
+      <c r="H124">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>4600</v>
+      </c>
+      <c r="B125">
+        <v>527</v>
+      </c>
+      <c r="C125">
+        <v>527</v>
+      </c>
+      <c r="D125">
+        <v>526</v>
+      </c>
+      <c r="E125">
+        <v>526</v>
+      </c>
+      <c r="F125">
+        <v>520</v>
+      </c>
+      <c r="G125">
+        <v>518</v>
+      </c>
+      <c r="H125">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>4800</v>
+      </c>
+      <c r="B126">
+        <v>527</v>
+      </c>
+      <c r="C126">
+        <v>526</v>
+      </c>
+      <c r="D126">
+        <v>526</v>
+      </c>
+      <c r="E126">
+        <v>526</v>
+      </c>
+      <c r="F126">
+        <v>519</v>
+      </c>
+      <c r="G126">
+        <v>518</v>
+      </c>
+      <c r="H126">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5000</v>
+      </c>
+      <c r="B127">
+        <v>526</v>
+      </c>
+      <c r="C127">
+        <v>526</v>
+      </c>
+      <c r="D127">
+        <v>526</v>
+      </c>
+      <c r="E127">
+        <v>526</v>
+      </c>
+      <c r="F127">
+        <v>519</v>
+      </c>
+      <c r="G127">
+        <v>517</v>
+      </c>
+      <c r="H127">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5200</v>
+      </c>
+      <c r="B128">
+        <v>526</v>
+      </c>
+      <c r="C128">
+        <v>526</v>
+      </c>
+      <c r="D128">
+        <v>526</v>
+      </c>
+      <c r="E128">
+        <v>525</v>
+      </c>
+      <c r="F128">
+        <v>518</v>
+      </c>
+      <c r="G128">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>5400</v>
+      </c>
+      <c r="B129">
+        <v>526</v>
+      </c>
+      <c r="C129">
+        <v>526</v>
+      </c>
+      <c r="D129">
+        <v>526</v>
+      </c>
+      <c r="E129">
+        <v>526</v>
+      </c>
+      <c r="F129">
+        <v>517</v>
+      </c>
+      <c r="G129">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5600</v>
+      </c>
+      <c r="B130">
+        <v>526</v>
+      </c>
+      <c r="C130">
+        <v>526</v>
+      </c>
+      <c r="D130">
+        <v>526</v>
+      </c>
+      <c r="E130">
+        <v>526</v>
+      </c>
+      <c r="F130">
+        <v>517</v>
+      </c>
+      <c r="G130">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>5800</v>
+      </c>
+      <c r="B131">
+        <v>526</v>
+      </c>
+      <c r="C131">
+        <v>526</v>
+      </c>
+      <c r="D131">
+        <v>526</v>
+      </c>
+      <c r="E131">
+        <v>525</v>
+      </c>
+      <c r="F131">
+        <v>516</v>
+      </c>
+      <c r="G131">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6000</v>
+      </c>
+      <c r="B132">
+        <v>526</v>
+      </c>
+      <c r="C132">
+        <v>526</v>
+      </c>
+      <c r="D132">
+        <v>526</v>
+      </c>
+      <c r="E132">
+        <v>525</v>
+      </c>
+      <c r="F132">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>6200</v>
+      </c>
+      <c r="B133">
+        <v>526</v>
+      </c>
+      <c r="C133">
+        <v>526</v>
+      </c>
+      <c r="D133">
+        <v>526</v>
+      </c>
+      <c r="E133">
+        <v>525</v>
+      </c>
+      <c r="F133">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6400</v>
+      </c>
+      <c r="B134">
+        <v>526</v>
+      </c>
+      <c r="C134">
+        <v>526</v>
+      </c>
+      <c r="D134">
+        <v>525</v>
+      </c>
+      <c r="E134">
+        <v>525</v>
+      </c>
+      <c r="F134">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>6600</v>
+      </c>
+      <c r="B135">
+        <v>526</v>
+      </c>
+      <c r="C135">
+        <v>526</v>
+      </c>
+      <c r="D135">
+        <v>526</v>
+      </c>
+      <c r="E135">
+        <v>524</v>
+      </c>
+      <c r="F135">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6800</v>
+      </c>
+      <c r="B136">
+        <v>526</v>
+      </c>
+      <c r="C136">
+        <v>526</v>
+      </c>
+      <c r="D136">
+        <v>525</v>
+      </c>
+      <c r="E136">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>7000</v>
+      </c>
+      <c r="B137">
+        <v>526</v>
+      </c>
+      <c r="C137">
+        <v>525</v>
+      </c>
+      <c r="D137">
+        <v>525</v>
+      </c>
+      <c r="E137">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>7201</v>
+      </c>
+      <c r="B138">
+        <v>526</v>
+      </c>
+      <c r="C138">
+        <v>525</v>
+      </c>
+      <c r="D138">
+        <v>525</v>
+      </c>
+      <c r="E138">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>7400</v>
+      </c>
+      <c r="B139">
+        <v>525</v>
+      </c>
+      <c r="C139">
+        <v>525</v>
+      </c>
+      <c r="D139">
+        <v>525</v>
+      </c>
+      <c r="E139">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>7600</v>
+      </c>
+      <c r="B140">
+        <v>526</v>
+      </c>
+      <c r="C140">
+        <v>525</v>
+      </c>
+      <c r="D140">
+        <v>525</v>
+      </c>
+      <c r="E140">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>7800</v>
+      </c>
+      <c r="B141">
+        <v>525</v>
+      </c>
+      <c r="C141">
+        <v>525</v>
+      </c>
+      <c r="D141">
+        <v>525</v>
+      </c>
+      <c r="E141">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8000</v>
+      </c>
+      <c r="B142">
+        <v>525</v>
+      </c>
+      <c r="C142">
+        <v>525</v>
+      </c>
+      <c r="D142">
+        <v>525</v>
+      </c>
+      <c r="E142">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>8200</v>
+      </c>
+      <c r="B143">
+        <v>525</v>
+      </c>
+      <c r="C143">
+        <v>525</v>
+      </c>
+      <c r="D143">
+        <v>524</v>
+      </c>
+      <c r="E143">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>8400</v>
+      </c>
+      <c r="B144">
+        <v>525</v>
+      </c>
+      <c r="C144">
+        <v>525</v>
+      </c>
+      <c r="D144">
+        <v>524</v>
+      </c>
+      <c r="E144">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>8600</v>
+      </c>
+      <c r="B145">
+        <v>525</v>
+      </c>
+      <c r="C145">
+        <v>525</v>
+      </c>
+      <c r="D145">
+        <v>524</v>
+      </c>
+      <c r="E145">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>8800</v>
+      </c>
+      <c r="B146">
+        <v>525</v>
+      </c>
+      <c r="C146">
+        <v>525</v>
+      </c>
+      <c r="D146">
+        <v>524</v>
+      </c>
+      <c r="E146">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>9000</v>
+      </c>
+      <c r="B147">
+        <v>525</v>
+      </c>
+      <c r="C147">
+        <v>525</v>
+      </c>
+      <c r="D147">
+        <v>523</v>
+      </c>
+      <c r="E147">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>9200</v>
+      </c>
+      <c r="B148">
+        <v>525</v>
+      </c>
+      <c r="C148">
+        <v>525</v>
+      </c>
+      <c r="D148">
+        <v>523</v>
+      </c>
+      <c r="E148">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>9400</v>
+      </c>
+      <c r="B149">
+        <v>525</v>
+      </c>
+      <c r="C149">
+        <v>525</v>
+      </c>
+      <c r="D149">
+        <v>523</v>
+      </c>
+      <c r="E149">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>9600</v>
+      </c>
+      <c r="B150">
+        <v>525</v>
+      </c>
+      <c r="C150">
+        <v>525</v>
+      </c>
+      <c r="D150">
+        <v>522</v>
+      </c>
+      <c r="E150">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>9800</v>
+      </c>
+      <c r="B151">
+        <v>525</v>
+      </c>
+      <c r="C151">
+        <v>525</v>
+      </c>
+      <c r="D151">
+        <v>522</v>
+      </c>
+      <c r="E151">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>10000</v>
+      </c>
+      <c r="B152">
+        <v>525</v>
+      </c>
+      <c r="C152">
+        <v>524</v>
+      </c>
+      <c r="D152">
+        <v>522</v>
+      </c>
+      <c r="E152">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>10200</v>
+      </c>
+      <c r="B153">
+        <v>525</v>
+      </c>
+      <c r="C153">
+        <v>524</v>
+      </c>
+      <c r="D153">
+        <v>521</v>
+      </c>
+      <c r="E153">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>10401</v>
+      </c>
+      <c r="B154">
+        <v>525</v>
+      </c>
+      <c r="C154">
+        <v>524</v>
+      </c>
+      <c r="D154">
+        <v>521</v>
+      </c>
+      <c r="E154">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>10600</v>
+      </c>
+      <c r="B155">
+        <v>525</v>
+      </c>
+      <c r="C155">
+        <v>524</v>
+      </c>
+      <c r="D155">
+        <v>521</v>
+      </c>
+      <c r="E155">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>10800</v>
+      </c>
+      <c r="B156">
+        <v>525</v>
+      </c>
+      <c r="C156">
+        <v>523</v>
+      </c>
+      <c r="D156">
+        <v>520</v>
+      </c>
+      <c r="E156">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>11000</v>
+      </c>
+      <c r="B157">
+        <v>525</v>
+      </c>
+      <c r="C157">
+        <v>523</v>
+      </c>
+      <c r="D157">
+        <v>520</v>
+      </c>
+      <c r="E157">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>11200</v>
+      </c>
+      <c r="B158">
+        <v>525</v>
+      </c>
+      <c r="C158">
+        <v>523</v>
+      </c>
+      <c r="D158">
+        <v>519</v>
+      </c>
+      <c r="E158">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>11400</v>
+      </c>
+      <c r="B159">
+        <v>524</v>
+      </c>
+      <c r="C159">
+        <v>523</v>
+      </c>
+      <c r="D159">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>11600</v>
+      </c>
+      <c r="B160">
+        <v>524</v>
+      </c>
+      <c r="C160">
+        <v>522</v>
+      </c>
+      <c r="D160">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>11800</v>
+      </c>
+      <c r="B161">
+        <v>524</v>
+      </c>
+      <c r="C161">
+        <v>522</v>
+      </c>
+      <c r="D161">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>12000</v>
+      </c>
+      <c r="B162">
+        <v>524</v>
+      </c>
+      <c r="C162">
+        <v>522</v>
+      </c>
+      <c r="D162">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>12200</v>
+      </c>
+      <c r="B163">
+        <v>524</v>
+      </c>
+      <c r="C163">
+        <v>521</v>
+      </c>
+      <c r="D163">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>12400</v>
+      </c>
+      <c r="B164">
+        <v>524</v>
+      </c>
+      <c r="C164">
+        <v>521</v>
+      </c>
+      <c r="D164">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>12600</v>
+      </c>
+      <c r="B165">
+        <v>523</v>
+      </c>
+      <c r="C165">
+        <v>521</v>
+      </c>
+      <c r="D165">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>12800</v>
+      </c>
+      <c r="B166">
+        <v>523</v>
+      </c>
+      <c r="C166">
+        <v>520</v>
+      </c>
+      <c r="D166">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>13000</v>
+      </c>
+      <c r="B167">
+        <v>523</v>
+      </c>
+      <c r="C167">
+        <v>520</v>
+      </c>
+      <c r="D167">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>13200</v>
+      </c>
+      <c r="B168">
+        <v>522</v>
+      </c>
+      <c r="C168">
+        <v>520</v>
+      </c>
+      <c r="D168">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>13400</v>
+      </c>
+      <c r="B169">
+        <v>522</v>
+      </c>
+      <c r="C169">
+        <v>519</v>
+      </c>
+      <c r="D169">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>13601</v>
+      </c>
+      <c r="B170">
+        <v>522</v>
+      </c>
+      <c r="C170">
+        <v>519</v>
+      </c>
+      <c r="D170">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>13800</v>
+      </c>
+      <c r="B171">
+        <v>522</v>
+      </c>
+      <c r="C171">
+        <v>519</v>
+      </c>
+      <c r="D171">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>14000</v>
+      </c>
+      <c r="B172">
+        <v>521</v>
+      </c>
+      <c r="C172">
+        <v>518</v>
+      </c>
+      <c r="D172">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>14200</v>
+      </c>
+      <c r="B173">
+        <v>521</v>
+      </c>
+      <c r="C173">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>14400</v>
+      </c>
+      <c r="B174">
+        <v>521</v>
+      </c>
+      <c r="C174">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>14600</v>
+      </c>
+      <c r="B175">
+        <v>520</v>
+      </c>
+      <c r="C175">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>14800</v>
+      </c>
+      <c r="B176">
+        <v>520</v>
+      </c>
+      <c r="C176">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>15000</v>
+      </c>
+      <c r="B177">
+        <v>520</v>
+      </c>
+      <c r="C177">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>15200</v>
+      </c>
+      <c r="B178">
+        <v>520</v>
+      </c>
+      <c r="C178">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>15400</v>
+      </c>
+      <c r="B179">
+        <v>519</v>
+      </c>
+      <c r="C179">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>15600</v>
+      </c>
+      <c r="B180">
+        <v>519</v>
+      </c>
+      <c r="C180">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>15800</v>
+      </c>
+      <c r="B181">
+        <v>519</v>
+      </c>
+      <c r="C181">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>16000</v>
+      </c>
+      <c r="B182">
+        <v>518</v>
+      </c>
+      <c r="C182">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>16200</v>
+      </c>
+      <c r="B183">
+        <v>518</v>
+      </c>
+      <c r="C183">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>16400</v>
+      </c>
+      <c r="B184">
+        <v>518</v>
+      </c>
+      <c r="C184">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>16600</v>
+      </c>
+      <c r="B185">
+        <v>518</v>
+      </c>
+      <c r="C185">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>16801</v>
+      </c>
+      <c r="B186">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>17000</v>
+      </c>
+      <c r="B187">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>17200</v>
+      </c>
+      <c r="B188">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>17400</v>
+      </c>
+      <c r="B189">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>17600</v>
+      </c>
+      <c r="B190">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>17800</v>
+      </c>
+      <c r="B191">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>18000</v>
+      </c>
+      <c r="B192">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>18200</v>
+      </c>
+      <c r="B193">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>18400</v>
+      </c>
+      <c r="B194">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>18600</v>
+      </c>
+      <c r="B195">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>18800</v>
+      </c>
+      <c r="B196">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>19000</v>
+      </c>
+      <c r="B197">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>19200</v>
+      </c>
+      <c r="B198">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/MeasurementsBalloon.xlsx
+++ b/MeasurementsBalloon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Documents\GitHub\EKS-dongmul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C846D3-A509-46DE-8B17-AA743F8E8B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84952D4-6991-456A-9E01-95A09B4DAE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="276" windowWidth="22968" windowHeight="12252" activeTab="4" xr2:uid="{F13927E3-5DAE-4E7F-83A3-47C948D31176}"/>
+    <workbookView xWindow="0" yWindow="276" windowWidth="22968" windowHeight="12252" activeTab="4" xr2:uid="{F13927E3-5DAE-4E7F-83A3-47C948D31176}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="RD3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t xml:space="preserve"> PWM</t>
   </si>
@@ -149,6 +148,12 @@
   </si>
   <si>
     <t>DVacVol = 0,006065 * t - 0,34273</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Surf/Time</t>
   </si>
 </sst>
 </file>
@@ -31990,8 +31995,8 @@
   <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U39" sqref="U39"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32046,7 +32051,9 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B3" s="3">
         <f>SUM(B5:B99)</f>
         <v>49424</v>
@@ -32089,7 +32096,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B4" s="6">
         <f>B3/18800</f>
         <v>2.628936170212766</v>
